--- a/docs/4.0 Module Verification  &  SW validation/Test_Details.xlsx
+++ b/docs/4.0 Module Verification  &  SW validation/Test_Details.xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAD\Desktop\Working Area\trunk\Docs\4.0 Module Verification  &amp;  SW validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAD\Desktop\Sch_EWCM\trunk\docs\4.0 Module Verification  &amp;  SW validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10035" tabRatio="876" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" tabRatio="938"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,19 @@
     <sheet name="14" sheetId="15" r:id="rId14"/>
     <sheet name="15" sheetId="16" r:id="rId15"/>
     <sheet name="16" sheetId="17" r:id="rId16"/>
+    <sheet name="17" sheetId="18" r:id="rId17"/>
+    <sheet name="18" sheetId="19" r:id="rId18"/>
+    <sheet name="19" sheetId="20" r:id="rId19"/>
+    <sheet name="20" sheetId="21" r:id="rId20"/>
+    <sheet name="21" sheetId="22" r:id="rId21"/>
+    <sheet name="22" sheetId="23" r:id="rId22"/>
+    <sheet name="23" sheetId="24" r:id="rId23"/>
+    <sheet name="24" sheetId="25" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Toc84904947" localSheetId="0">'1'!#REF!</definedName>
@@ -43,7 +51,15 @@
     <definedName name="_Toc84904947" localSheetId="13">'14'!#REF!</definedName>
     <definedName name="_Toc84904947" localSheetId="14">'15'!#REF!</definedName>
     <definedName name="_Toc84904947" localSheetId="15">'16'!#REF!</definedName>
+    <definedName name="_Toc84904947" localSheetId="16">'17'!#REF!</definedName>
+    <definedName name="_Toc84904947" localSheetId="17">'18'!#REF!</definedName>
+    <definedName name="_Toc84904947" localSheetId="18">'19'!#REF!</definedName>
     <definedName name="_Toc84904947" localSheetId="1">'2'!#REF!</definedName>
+    <definedName name="_Toc84904947" localSheetId="19">'20'!#REF!</definedName>
+    <definedName name="_Toc84904947" localSheetId="20">'21'!#REF!</definedName>
+    <definedName name="_Toc84904947" localSheetId="21">'22'!#REF!</definedName>
+    <definedName name="_Toc84904947" localSheetId="22">'23'!#REF!</definedName>
+    <definedName name="_Toc84904947" localSheetId="23">'24'!#REF!</definedName>
     <definedName name="_Toc84904947" localSheetId="2">'3'!#REF!</definedName>
     <definedName name="_Toc84904947" localSheetId="3">'4'!#REF!</definedName>
     <definedName name="_Toc84904947" localSheetId="4">'5'!#REF!</definedName>
@@ -59,7 +75,15 @@
     <definedName name="line1" localSheetId="13">[1]Matrix!#REF!</definedName>
     <definedName name="line1" localSheetId="14">[1]Matrix!#REF!</definedName>
     <definedName name="line1" localSheetId="15">[1]Matrix!#REF!</definedName>
+    <definedName name="line1" localSheetId="16">[1]Matrix!#REF!</definedName>
+    <definedName name="line1" localSheetId="17">[1]Matrix!#REF!</definedName>
+    <definedName name="line1" localSheetId="18">[1]Matrix!#REF!</definedName>
     <definedName name="line1" localSheetId="1">[1]Matrix!#REF!</definedName>
+    <definedName name="line1" localSheetId="19">[1]Matrix!#REF!</definedName>
+    <definedName name="line1" localSheetId="20">[1]Matrix!#REF!</definedName>
+    <definedName name="line1" localSheetId="21">[1]Matrix!#REF!</definedName>
+    <definedName name="line1" localSheetId="22">[1]Matrix!#REF!</definedName>
+    <definedName name="line1" localSheetId="23">[1]Matrix!#REF!</definedName>
     <definedName name="line1" localSheetId="2">[1]Matrix!#REF!</definedName>
     <definedName name="line1" localSheetId="3">[1]Matrix!#REF!</definedName>
     <definedName name="line1" localSheetId="4">[1]Matrix!#REF!</definedName>
@@ -68,8 +92,14 @@
     <definedName name="line1" localSheetId="7">[1]Matrix!#REF!</definedName>
     <definedName name="line1" localSheetId="8">[1]Matrix!#REF!</definedName>
     <definedName name="line1">[2]Matrix!#REF!</definedName>
+    <definedName name="line2" localSheetId="19">[2]Matrix!#REF!</definedName>
+    <definedName name="line2" localSheetId="23">[2]Matrix!#REF!</definedName>
     <definedName name="line2">[2]Matrix!#REF!</definedName>
+    <definedName name="line3" localSheetId="19">[2]Matrix!#REF!</definedName>
+    <definedName name="line3" localSheetId="23">[2]Matrix!#REF!</definedName>
     <definedName name="line3">[2]Matrix!#REF!</definedName>
+    <definedName name="line4" localSheetId="19">[2]Matrix!#REF!</definedName>
+    <definedName name="line4" localSheetId="23">[2]Matrix!#REF!</definedName>
     <definedName name="line4">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="9">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="10">[2]Matrix!#REF!</definedName>
@@ -78,7 +108,15 @@
     <definedName name="Prueba1" localSheetId="13">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="14">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="15">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba1" localSheetId="16">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba1" localSheetId="17">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba1" localSheetId="18">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="1">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba1" localSheetId="19">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba1" localSheetId="20">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba1" localSheetId="21">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba1" localSheetId="22">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba1" localSheetId="23">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="2">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="3">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="4">[2]Matrix!#REF!</definedName>
@@ -87,15 +125,36 @@
     <definedName name="Prueba1" localSheetId="7">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1" localSheetId="8">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba1">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba2" localSheetId="19">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba2" localSheetId="23">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba2">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba3" localSheetId="19">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba3" localSheetId="23">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba3">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba4" localSheetId="19">[2]Matrix!#REF!</definedName>
+    <definedName name="Prueba4" localSheetId="23">[2]Matrix!#REF!</definedName>
     <definedName name="Prueba4">[2]Matrix!#REF!</definedName>
+    <definedName name="status" localSheetId="19">#REF!</definedName>
+    <definedName name="status" localSheetId="23">#REF!</definedName>
     <definedName name="status">#REF!</definedName>
+    <definedName name="status2" localSheetId="19">#REF!</definedName>
+    <definedName name="status2" localSheetId="23">#REF!</definedName>
     <definedName name="status2">#REF!</definedName>
+    <definedName name="status3">#REF!</definedName>
+    <definedName name="test_result4">#REF!</definedName>
+    <definedName name="test_results" localSheetId="19">#REF!</definedName>
+    <definedName name="test_results" localSheetId="23">#REF!</definedName>
     <definedName name="test_results">#REF!</definedName>
+    <definedName name="test_results2" localSheetId="19">#REF!</definedName>
+    <definedName name="test_results2" localSheetId="23">#REF!</definedName>
     <definedName name="test_results2">#REF!</definedName>
+    <definedName name="test_results3" localSheetId="19">#REF!</definedName>
+    <definedName name="test_results3" localSheetId="23">#REF!</definedName>
     <definedName name="test_results3">#REF!</definedName>
+    <definedName name="test_results4" localSheetId="19">#REF!</definedName>
+    <definedName name="test_results4" localSheetId="23">#REF!</definedName>
     <definedName name="test_results4">#REF!</definedName>
+    <definedName name="test_results5">#REF!</definedName>
     <definedName name="toto" localSheetId="9">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="10">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="11">[3]Matrix!#REF!</definedName>
@@ -103,7 +162,15 @@
     <definedName name="toto" localSheetId="13">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="14">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="15">[3]Matrix!#REF!</definedName>
+    <definedName name="toto" localSheetId="16">[3]Matrix!#REF!</definedName>
+    <definedName name="toto" localSheetId="17">[3]Matrix!#REF!</definedName>
+    <definedName name="toto" localSheetId="18">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="1">[3]Matrix!#REF!</definedName>
+    <definedName name="toto" localSheetId="19">[3]Matrix!#REF!</definedName>
+    <definedName name="toto" localSheetId="20">[3]Matrix!#REF!</definedName>
+    <definedName name="toto" localSheetId="21">[3]Matrix!#REF!</definedName>
+    <definedName name="toto" localSheetId="22">[3]Matrix!#REF!</definedName>
+    <definedName name="toto" localSheetId="23">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="2">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="3">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="4">[3]Matrix!#REF!</definedName>
@@ -112,12 +179,28 @@
     <definedName name="toto" localSheetId="7">[3]Matrix!#REF!</definedName>
     <definedName name="toto" localSheetId="8">[3]Matrix!#REF!</definedName>
     <definedName name="toto">[3]Matrix!#REF!</definedName>
+    <definedName name="toto10">[3]Matrix!#REF!</definedName>
+    <definedName name="toto2" localSheetId="19">[3]Matrix!#REF!</definedName>
+    <definedName name="toto2" localSheetId="23">[3]Matrix!#REF!</definedName>
     <definedName name="toto2">[3]Matrix!#REF!</definedName>
+    <definedName name="toto24">[3]Matrix!#REF!</definedName>
+    <definedName name="toto3" localSheetId="19">[3]Matrix!#REF!</definedName>
+    <definedName name="toto3" localSheetId="23">[3]Matrix!#REF!</definedName>
     <definedName name="toto3">[3]Matrix!#REF!</definedName>
+    <definedName name="toto4" localSheetId="19">[3]Matrix!#REF!</definedName>
+    <definedName name="toto4" localSheetId="23">[3]Matrix!#REF!</definedName>
     <definedName name="toto4">[3]Matrix!#REF!</definedName>
+    <definedName name="toto5" localSheetId="19">[3]Matrix!#REF!</definedName>
+    <definedName name="toto5" localSheetId="23">[3]Matrix!#REF!</definedName>
     <definedName name="toto5">[3]Matrix!#REF!</definedName>
+    <definedName name="toto6" localSheetId="19">[3]Matrix!#REF!</definedName>
+    <definedName name="toto6" localSheetId="23">[3]Matrix!#REF!</definedName>
     <definedName name="toto6">[3]Matrix!#REF!</definedName>
+    <definedName name="toto7" localSheetId="19">[3]Matrix!#REF!</definedName>
+    <definedName name="toto7" localSheetId="23">[3]Matrix!#REF!</definedName>
     <definedName name="toto7">[3]Matrix!#REF!</definedName>
+    <definedName name="toto8">[3]Matrix!#REF!</definedName>
+    <definedName name="toto9">[3]Matrix!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1168,7 +1251,1047 @@
 </comments>
 </file>
 
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UID73533</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide the code details about the testID you will use while executing test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fill only the details of how to execute the test. Code details should not be provided here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this field a description can be added and if needed a table can be added at the bottom of the page.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This field needs to be filled if there is no Results table added at the bottom of the page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide link to the screenshots or any important documents</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UID73533</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide the code details about the testID you will use while executing test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fill only the details of how to execute the test. Code details should not be provided here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this field a description can be added and if needed a table can be added at the bottom of the page.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This field needs to be filled if there is no Results table added at the bottom of the page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide link to the screenshots or any important documents</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UID73533</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide the code details about the testID you will use while executing test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fill only the details of how to execute the test. Code details should not be provided here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this field a description can be added and if needed a table can be added at the bottom of the page.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This field needs to be filled if there is no Results table added at the bottom of the page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide link to the screenshots or any important documents</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UID73533</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide the code details about the testID you will use while executing test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fill only the details of how to execute the test. Code details should not be provided here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this field a description can be added and if needed a table can be added at the bottom of the page.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This field needs to be filled if there is no Results table added at the bottom of the page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide link to the screenshots or any important documents</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UID73533</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide the code details about the testID you will use while executing test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fill only the details of how to execute the test. Code details should not be provided here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this field a description can be added and if needed a table can be added at the bottom of the page.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This field needs to be filled if there is no Results table added at the bottom of the page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide link to the screenshots or any important documents</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UID73533</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide the code details about the testID you will use while executing test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fill only the details of how to execute the test. Code details should not be provided here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this field a description can be added and if needed a table can be added at the bottom of the page.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This field needs to be filled if there is no Results table added at the bottom of the page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide link to the screenshots or any important documents</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UID73533</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide the code details about the testID you will use while executing test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fill only the details of how to execute the test. Code details should not be provided here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this field a description can be added and if needed a table can be added at the bottom of the page.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This field needs to be filled if there is no Results table added at the bottom of the page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide link to the screenshots or any important documents</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>UID73533</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide the code details about the testID you will use while executing test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fill only the details of how to execute the test. Code details should not be provided here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For this field a description can be added and if needed a table can be added at the bottom of the page.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This field needs to be filled if there is no Results table added at the bottom of the page</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UID73533:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Provide link to the screenshots or any important documents</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>UID73533</author>
@@ -2209,7 +3332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="128">
   <si>
     <t>Test Description</t>
   </si>
@@ -2337,9 +3460,6 @@
     <t>Not to start the operation of the window.</t>
   </si>
   <si>
-    <t>Not done</t>
-  </si>
-  <si>
     <t>Send a 10 ms pulse to the input.</t>
   </si>
   <si>
@@ -2409,9 +3529,6 @@
     <t>Send a pulse to the input, more than 500ms</t>
   </si>
   <si>
-    <t>Send an 1200ms pulse to de UP button input</t>
-  </si>
-  <si>
     <t>DOWN Button press validation at 10ms</t>
   </si>
   <si>
@@ -2433,16 +3550,172 @@
     <t>Send an 500ms pulse to de DOWN button input</t>
   </si>
   <si>
-    <t>Send a 1200ms pulse to de DOWN button input</t>
-  </si>
-  <si>
     <t>Move window in manual mode.</t>
   </si>
   <si>
-    <t>Close window three levels.</t>
+    <t>PINCH Button press validation before 10ms</t>
   </si>
   <si>
-    <t>Open window three levels.</t>
+    <t>Send a 9ms pulse to de PINCH button input</t>
+  </si>
+  <si>
+    <t>Not to trigger the AntiPinch function.</t>
+  </si>
+  <si>
+    <t>Never trigger the window AntiPinch functionality, while moving UP.</t>
+  </si>
+  <si>
+    <t>PINCH Button press validation at 10ms</t>
+  </si>
+  <si>
+    <t>Trigger the AntiPinch functionality.</t>
+  </si>
+  <si>
+    <t>Trigger a valid AntiPinch function at least 50% of the times.</t>
+  </si>
+  <si>
+    <t>PINCH Button press validation after 10ms</t>
+  </si>
+  <si>
+    <t>Send a 11ms pulse to de PINCH button input</t>
+  </si>
+  <si>
+    <t>Send a 10ms pulse to de PINCH button input</t>
+  </si>
+  <si>
+    <t>Send a 11ms pulse to de DOWN button input</t>
+  </si>
+  <si>
+    <t>Send a 10ms pulse to de DOWN button input</t>
+  </si>
+  <si>
+    <t>Trigger the AntiPinch function.</t>
+  </si>
+  <si>
+    <t>Always trigger the AntiPinch functionality.</t>
+  </si>
+  <si>
+    <t>PINCH Signal triggered while going UP</t>
+  </si>
+  <si>
+    <t>Send a valid PINCH signal to the system.</t>
+  </si>
+  <si>
+    <t>Send at least a 11ms pulse to de PINCH button input while moving UP and while moving DOWN</t>
+  </si>
+  <si>
+    <t>Trigger the AntiPinch function only while moving UP.</t>
+  </si>
+  <si>
+    <t>AntiPinch function; stop UP movement</t>
+  </si>
+  <si>
+    <t>Antipinch function; open completely the window</t>
+  </si>
+  <si>
+    <t>AntiPinch function; 5 seconds timeout after openning window</t>
+  </si>
+  <si>
+    <t>AntiPinch function; back to idle after the 5 seconds timeout</t>
+  </si>
+  <si>
+    <t>Stop window UP movement after sending a valid PINCH signal</t>
+  </si>
+  <si>
+    <t>Stop movement in current window position.</t>
+  </si>
+  <si>
+    <t>Open the window after a valid PICH signal</t>
+  </si>
+  <si>
+    <t>Open completely the window.</t>
+  </si>
+  <si>
+    <t>Send commands to the system (press buttons)</t>
+  </si>
+  <si>
+    <t>Validate the 5 seconds timeout</t>
+  </si>
+  <si>
+    <t>No system response.</t>
+  </si>
+  <si>
+    <t>Verify that system works after the 5 seconds timeout</t>
+  </si>
+  <si>
+    <t>Press UP button</t>
+  </si>
+  <si>
+    <t>Move window UP</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Worked at 12ms</t>
+  </si>
+  <si>
+    <t>Always stayed in one-touch mode</t>
+  </si>
+  <si>
+    <t>Send an 550ms pulse to de UP button input</t>
+  </si>
+  <si>
+    <t>Close window one level.</t>
+  </si>
+  <si>
+    <t>Send a 550ms pulse to de DOWN button input</t>
+  </si>
+  <si>
+    <t>Open window one level.</t>
+  </si>
+  <si>
+    <t>Oscilloscope and signal generator required</t>
+  </si>
+  <si>
+    <t>Requirement ID: 6</t>
+  </si>
+  <si>
+    <t>Requirement ID: 7</t>
+  </si>
+  <si>
+    <t>Requirement ID: 8, 9</t>
+  </si>
+  <si>
+    <t>Requirement ID: 12</t>
+  </si>
+  <si>
+    <t>Requirement ID: 13</t>
+  </si>
+  <si>
+    <t>Requirement ID: 14</t>
+  </si>
+  <si>
+    <t>Requirement ID: 12, 15</t>
+  </si>
+  <si>
+    <t>Requirement ID: 15</t>
+  </si>
+  <si>
+    <t>Requirement ID: 12, 16</t>
+  </si>
+  <si>
+    <t>Requirement ID: 16</t>
+  </si>
+  <si>
+    <t>Requirement ID: 20</t>
+  </si>
+  <si>
+    <t>Requirement ID: 21</t>
+  </si>
+  <si>
+    <t>Requirement ID: 22</t>
+  </si>
+  <si>
+    <t>Requirement ID: 23</t>
+  </si>
+  <si>
+    <t>Requirement ID: 24</t>
   </si>
 </sst>
 </file>
@@ -2912,39 +4185,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2984,6 +4224,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2992,6 +4241,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3043,7 +4316,39 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D60-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
@@ -3555,6 +4860,186 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18433" name="ToggleButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18433"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19457" name="ToggleButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s19457"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20481" name="ToggleButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s20481"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3578,6 +5063,306 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21505" name="ToggleButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21505"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22529" name="ToggleButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s22529"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23553" name="ToggleButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s23553"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24577" name="ToggleButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s24577"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25601" name="ToggleButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s25601"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4518,8 +6303,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4582,88 +6367,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4677,19 +6464,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -4697,8 +6484,8 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
@@ -4706,34 +6493,34 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -4776,6 +6563,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -4788,11 +6580,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -4853,7 +6640,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4904,98 +6691,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5009,19 +6800,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -5029,43 +6820,47 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5108,11 +6903,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -5125,6 +6915,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -5184,8 +6979,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5236,98 +7031,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5341,19 +7140,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -5361,43 +7160,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5440,11 +7241,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -5457,6 +7253,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -5516,8 +7317,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5568,98 +7369,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5673,19 +7478,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -5693,43 +7498,47 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -5772,11 +7581,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -5789,6 +7593,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -5848,8 +7657,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5900,98 +7709,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6005,19 +7818,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -6025,43 +7838,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -6104,11 +7919,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -6121,6 +7931,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -6180,8 +7995,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6232,98 +8047,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6337,19 +8156,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -6357,43 +8176,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -6436,11 +8257,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -6453,6 +8269,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -6512,8 +8333,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6564,98 +8385,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6669,19 +8494,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -6689,43 +8514,47 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -6768,11 +8597,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -6785,6 +8609,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -6844,8 +8673,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6896,98 +8725,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7001,19 +8834,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -7021,43 +8854,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -7100,11 +8935,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -7117,6 +8947,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -7169,15 +9004,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16">
+  <sheetPr codeName="Sheet31">
     <tabColor indexed="40"/>
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7228,7 +9063,7 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -7240,88 +9075,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7335,19 +9172,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -7355,8 +9192,10 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="39"/>
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
@@ -7364,34 +9203,34 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -7434,6 +9273,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -7446,11 +9290,1018 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+      <formula1>"PASSED,FAILED"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D5">
+      <formula1>"Complete,Not done,Started but not finished"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.6692913385826772" right="0.74803149606299213" top="1.1023622047244095" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Gras" SW Overall Regression Testing  &amp;"Arial,Normal"
+&amp;F&amp;RDivision
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;7Printout From Information Pool&amp;C&amp;P&amp;R&amp;7Copyright Continental AG
+For Internal Use Only
+</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="18433" r:id="rId5" name="ToggleButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="18433" r:id="rId5" name="ToggleButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet32">
+    <tabColor indexed="40"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+      <formula1>"PASSED,FAILED"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D5">
+      <formula1>"Complete,Not done,Started but not finished"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.6692913385826772" right="0.74803149606299213" top="1.1023622047244095" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Gras" SW Overall Regression Testing  &amp;"Arial,Normal"
+&amp;F&amp;RDivision
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;7Printout From Information Pool&amp;C&amp;P&amp;R&amp;7Copyright Continental AG
+For Internal Use Only
+</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="19457" r:id="rId5" name="ToggleButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="19457" r:id="rId5" name="ToggleButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet33">
+    <tabColor indexed="40"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+      <formula1>"PASSED,FAILED"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D5">
+      <formula1>"Complete,Not done,Started but not finished"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.6692913385826772" right="0.74803149606299213" top="1.1023622047244095" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Gras" SW Overall Regression Testing  &amp;"Arial,Normal"
+&amp;F&amp;RDivision
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;7Printout From Information Pool&amp;C&amp;P&amp;R&amp;7Copyright Continental AG
+For Internal Use Only
+</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="20481" r:id="rId5" name="ToggleButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="20481" r:id="rId5" name="ToggleButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16">
+    <tabColor indexed="40"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -7503,15 +10354,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet17">
+  <sheetPr codeName="Sheet34">
     <tabColor indexed="40"/>
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7562,7 +10413,7 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -7574,88 +10425,88 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7669,19 +10520,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -7689,8 +10540,10 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="39"/>
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
@@ -7698,34 +10551,368 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="D5">
+      <formula1>"Complete,Not done,Started but not finished"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+      <formula1>"PASSED,FAILED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.6692913385826772" right="0.74803149606299213" top="1.1023622047244095" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Gras" SW Overall Regression Testing  &amp;"Arial,Normal"
+&amp;F&amp;RDivision
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;7Printout From Information Pool&amp;C&amp;P&amp;R&amp;7Copyright Continental AG
+For Internal Use Only
+</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="21505" r:id="rId5" name="ToggleButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="21505" r:id="rId5" name="ToggleButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet35">
+    <tabColor indexed="40"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -7785,6 +10972,1344 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="D5">
+      <formula1>"Complete,Not done,Started but not finished"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+      <formula1>"PASSED,FAILED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.6692913385826772" right="0.74803149606299213" top="1.1023622047244095" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Gras" SW Overall Regression Testing  &amp;"Arial,Normal"
+&amp;F&amp;RDivision
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;7Printout From Information Pool&amp;C&amp;P&amp;R&amp;7Copyright Continental AG
+For Internal Use Only
+</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="22529" r:id="rId5" name="ToggleButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="22529" r:id="rId5" name="ToggleButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet36">
+    <tabColor indexed="40"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="D5">
+      <formula1>"Complete,Not done,Started but not finished"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+      <formula1>"PASSED,FAILED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.6692913385826772" right="0.74803149606299213" top="1.1023622047244095" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Gras" SW Overall Regression Testing  &amp;"Arial,Normal"
+&amp;F&amp;RDivision
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;7Printout From Information Pool&amp;C&amp;P&amp;R&amp;7Copyright Continental AG
+For Internal Use Only
+</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="23553" r:id="rId5" name="ToggleButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="23553" r:id="rId5" name="ToggleButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet37">
+    <tabColor indexed="40"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="D5">
+      <formula1>"Complete,Not done,Started but not finished"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+      <formula1>"PASSED,FAILED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.6692913385826772" right="0.74803149606299213" top="1.1023622047244095" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Gras" SW Overall Regression Testing  &amp;"Arial,Normal"
+&amp;F&amp;RDivision
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;7Printout From Information Pool&amp;C&amp;P&amp;R&amp;7Copyright Continental AG
+For Internal Use Only
+</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="24577" r:id="rId5" name="ToggleButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="24577" r:id="rId5" name="ToggleButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet38">
+    <tabColor indexed="40"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+      <formula1>"PASSED,FAILED"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D5">
+      <formula1>"Complete,Not done,Started but not finished"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.6692913385826772" right="0.74803149606299213" top="1.1023622047244095" bottom="0.98425196850393704" header="0.27559055118110237" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Gras" SW Overall Regression Testing  &amp;"Arial,Normal"
+&amp;F&amp;RDivision
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;7Printout From Information Pool&amp;C&amp;P&amp;R&amp;7Copyright Continental AG
+For Internal Use Only
+</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="25601" r:id="rId5" name="ToggleButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="25601" r:id="rId5" name="ToggleButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17">
+    <tabColor indexed="40"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -7845,7 +12370,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7908,88 +12433,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8003,19 +12530,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -8023,8 +12550,8 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
@@ -8032,34 +12559,34 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -8102,6 +12629,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -8114,11 +12646,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -8179,7 +12706,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8236,92 +12763,96 @@
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8335,19 +12866,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -8355,43 +12886,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -8434,6 +12967,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -8446,11 +12984,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -8511,7 +13044,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8568,92 +13101,96 @@
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8667,19 +13204,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -8687,43 +13224,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -8766,6 +13305,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -8778,11 +13322,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -8842,8 +13381,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8900,92 +13439,96 @@
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8999,19 +13542,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -9019,43 +13562,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -9098,6 +13643,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -9110,11 +13660,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -9175,7 +13720,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9226,98 +13771,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9331,19 +13880,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -9351,43 +13900,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -9430,11 +13981,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -9447,6 +13993,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -9507,7 +14058,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9558,98 +14109,102 @@
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9663,19 +14218,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -9683,43 +14238,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -9762,11 +14319,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -9779,6 +14331,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">

--- a/docs/4.0 Module Verification  &  SW validation/Test_Details.xlsx
+++ b/docs/4.0 Module Verification  &  SW validation/Test_Details.xlsx
@@ -3768,11 +3768,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
@@ -3821,8 +3816,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3845,6 +3847,16 @@
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -4123,14 +4135,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4160,30 +4174,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4224,15 +4267,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4242,32 +4276,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6303,8 +6323,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6354,7 +6374,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -6367,90 +6387,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6464,19 +6484,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -6484,43 +6504,43 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -6532,42 +6552,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -6580,6 +6595,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -6640,7 +6660,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6690,7 +6710,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -6703,90 +6723,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6800,19 +6820,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -6820,47 +6840,47 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="46" t="s">
         <v>105</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -6872,37 +6892,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -6915,11 +6940,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -6980,7 +7000,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7030,7 +7050,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -7043,90 +7063,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7140,19 +7160,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -7160,45 +7180,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -7210,37 +7230,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -7253,11 +7278,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -7318,7 +7338,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7368,7 +7388,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -7381,90 +7401,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7478,19 +7498,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -7498,47 +7518,47 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="46" t="s">
         <v>105</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -7550,37 +7570,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -7593,11 +7618,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -7658,7 +7678,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7708,7 +7728,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -7721,90 +7741,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7818,19 +7838,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -7838,45 +7858,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -7888,37 +7908,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -7931,11 +7956,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -7996,7 +8016,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8046,7 +8066,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -8059,90 +8079,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8156,19 +8176,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -8176,45 +8196,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -8226,37 +8246,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -8269,11 +8294,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -8334,7 +8354,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8384,7 +8404,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -8397,90 +8417,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8494,19 +8514,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -8514,47 +8534,47 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="46" t="s">
         <v>105</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -8566,37 +8586,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -8609,11 +8634,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -8674,7 +8694,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8724,7 +8744,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -8737,90 +8757,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8834,19 +8854,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -8854,45 +8874,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -8904,37 +8924,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -8947,11 +8972,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -9012,7 +9032,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9062,7 +9082,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -9075,90 +9095,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9172,19 +9192,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -9192,45 +9212,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -9242,42 +9262,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -9290,6 +9305,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -9350,7 +9370,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9400,7 +9420,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -9413,90 +9433,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9510,19 +9530,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -9530,45 +9550,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -9580,42 +9600,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -9628,6 +9643,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -9688,7 +9708,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9738,7 +9758,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -9751,90 +9771,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9848,19 +9868,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -9868,45 +9888,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -9918,42 +9938,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -9966,6 +9981,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -10026,7 +10046,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10076,7 +10096,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -10089,90 +10109,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10186,19 +10206,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -10206,43 +10226,43 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -10254,42 +10274,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -10302,6 +10317,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -10362,7 +10382,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10412,7 +10432,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -10425,88 +10445,88 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10520,19 +10540,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -10540,45 +10560,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -10590,42 +10610,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -10638,6 +10653,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -10698,7 +10718,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10748,7 +10768,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -10761,88 +10781,88 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10856,19 +10876,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -10876,43 +10896,43 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -10924,37 +10944,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -10967,11 +10992,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -11032,7 +11052,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11082,7 +11102,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -11095,88 +11115,88 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11190,19 +11210,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -11210,43 +11230,43 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -11258,37 +11278,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -11301,11 +11326,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -11366,7 +11386,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11416,7 +11436,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -11429,88 +11449,88 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11524,19 +11544,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -11544,43 +11564,43 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -11592,37 +11612,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -11635,11 +11660,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -11700,7 +11720,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11750,7 +11770,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -11763,88 +11783,88 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11858,19 +11878,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -11878,43 +11898,43 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -11926,37 +11946,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -11969,11 +11994,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -12034,7 +12054,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12084,7 +12104,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -12097,90 +12117,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12194,19 +12214,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -12214,43 +12234,43 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -12262,42 +12282,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -12310,6 +12325,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -12370,7 +12390,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12420,7 +12440,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -12433,90 +12453,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12530,19 +12550,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -12550,43 +12570,43 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -12598,42 +12618,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -12646,6 +12661,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -12706,7 +12726,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12756,7 +12776,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -12769,90 +12789,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12866,19 +12886,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -12886,45 +12906,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -12936,42 +12956,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -12984,6 +12999,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -13044,7 +13064,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13094,7 +13114,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -13107,90 +13127,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13204,19 +13224,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -13224,45 +13244,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="46" t="s">
         <v>105</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -13274,42 +13294,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -13322,6 +13337,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -13382,7 +13402,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13432,7 +13452,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -13445,90 +13465,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13542,19 +13562,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -13562,45 +13582,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -13612,42 +13632,37 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -13660,6 +13675,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
@@ -13720,7 +13740,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13770,7 +13790,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -13783,90 +13803,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13880,19 +13900,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -13900,45 +13920,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -13950,37 +13970,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -13993,11 +14018,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
@@ -14058,7 +14078,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14108,7 +14128,7 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -14121,90 +14141,90 @@
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14218,19 +14238,19 @@
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
@@ -14238,45 +14258,45 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="46" t="s">
         <v>105</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -14288,37 +14308,42 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -14331,11 +14356,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D5">
